--- a/05-Diğer/Sunum Dokumanlar/BEP Study/to Do List.xlsx
+++ b/05-Diğer/Sunum Dokumanlar/BEP Study/to Do List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="BuÇalışmaKitabı"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray\Documents\BIM_Project_Local\05-Diğer\Sunum Dokumanlar\BEP Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray.uzun\Desktop\ERAY\! Kişisel Belgeler\BIM_Project_Local\05-Diğer\Sunum Dokumanlar\BEP Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6763E623-B91B-409D-8A3E-5669F85043D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Sayfa4" sheetId="4" r:id="rId5"/>
     <sheet name="Sayfa5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="230">
   <si>
     <t>Yapılacak İşler</t>
   </si>
@@ -593,9 +594,6 @@
     <t>Animation file (of a model)</t>
   </si>
   <si>
-    <t>CICU-098</t>
-  </si>
-  <si>
     <t>L5</t>
   </si>
   <si>
@@ -768,19 +766,28 @@
   </si>
   <si>
     <t>Survey</t>
+  </si>
+  <si>
+    <t>CICU-</t>
+  </si>
+  <si>
+    <t>DR_P:Plan</t>
+  </si>
+  <si>
+    <t>DR_E:Section</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ ddd"/>
     <numFmt numFmtId="166" formatCode="##0\ &quot;m²&quot;"/>
     <numFmt numFmtId="167" formatCode="000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,6 +834,24 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1084,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1299,9 +1324,20 @@
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1754,12 +1790,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2111,7 +2147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A3:F7"/>
   <sheetViews>
@@ -2184,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A2:J74"/>
   <sheetViews>
@@ -3005,7 +3041,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="F45:F74">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F45:F74">
     <sortCondition ref="F74"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3014,11 +3050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3451,11 +3487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
@@ -3467,282 +3503,299 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="C6:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="74" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="J6" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="75"/>
+      <c r="P6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="77" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+      <c r="E8" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="74" t="s">
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="77" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+      <c r="F9" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>175</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="77" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
+      <c r="F10" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>178</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="74" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>180</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F12" s="74" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>182</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F13" s="74" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
+      <c r="G13" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="74" t="s">
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F14" s="74" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
+      <c r="G14" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="74" t="s">
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F16" s="74" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>188</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="74" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>190</v>
       </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="74" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>192</v>
       </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="74" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>194</v>
       </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="74" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>196</v>
       </c>
-      <c r="G20" t="s">
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="74" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>198</v>
       </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="74" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>200</v>
       </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="74" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
+      <c r="G23" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="G23" s="74" t="s">
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="74" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>204</v>
       </c>
-      <c r="G24" t="s">
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="74" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>206</v>
       </c>
-      <c r="G25" t="s">
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="74" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>208</v>
       </c>
-      <c r="G26" t="s">
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="74" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>210</v>
       </c>
-      <c r="G27" t="s">
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="74" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>212</v>
       </c>
-      <c r="G28" t="s">
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="74" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>214</v>
       </c>
-      <c r="G29" t="s">
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="74" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>216</v>
       </c>
-      <c r="G30" t="s">
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="74" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>218</v>
       </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="74" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>220</v>
       </c>
-      <c r="G32" t="s">
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="74" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>222</v>
       </c>
-      <c r="G33" t="s">
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F34" s="74" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>224</v>
       </c>
-      <c r="G34" t="s">
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F35" s="74" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>226</v>
-      </c>
-      <c r="G35" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>